--- a/src/main/resources/template/MGL-Template.xlsx
+++ b/src/main/resources/template/MGL-Template.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Business Solution\Share\AutomateReport\batch\java\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="18915" windowHeight="11145" tabRatio="627"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="18915" windowHeight="11145" tabRatio="627" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MGL Summary" sheetId="4" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'MGL Summary'!$A$5:$K$13</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -220,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -230,7 +235,7 @@
     <numFmt numFmtId="169" formatCode="[$-1010409]#,##0.00;\-#,##0.00"/>
     <numFmt numFmtId="170" formatCode="[$-1010409]#,##0.00%"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,7 +633,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -892,9 +897,6 @@
     <xf numFmtId="169" fontId="15" fillId="11" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="3" fontId="15" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -985,27 +987,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="14" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="167" fontId="13" fillId="9" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="168" fontId="13" fillId="9" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="167" fontId="11" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="167" fontId="17" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="9" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="167" fontId="17" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1017,6 +1019,12 @@
     </xf>
     <xf numFmtId="167" fontId="15" fillId="9" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="3" applyFill="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1037,6 +1045,14 @@
       <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1083,7 +1099,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1115,9 +1131,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1149,6 +1166,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1324,21 +1342,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A6:N16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="34.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" style="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="1.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="8" max="9" width="10.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
@@ -1350,43 +1369,43 @@
     <col min="16" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:14" ht="14.25">
+    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="11.25" thickBot="1"/>
-    <row r="8" spans="1:14" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A8" s="115" t="s">
+    <row r="7" spans="1:14" ht="11.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="109" t="s">
+      <c r="D8" s="117"/>
+      <c r="E8" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="110"/>
-      <c r="H8" s="111" t="s">
+      <c r="F8" s="109"/>
+      <c r="H8" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="111" t="s">
+      <c r="I8" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="113" t="s">
+      <c r="J8" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="103" t="s">
+      <c r="K8" s="102" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="115"/>
+      <c r="B9" s="115"/>
       <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1399,12 +1418,12 @@
       <c r="F9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="104"/>
-    </row>
-    <row r="10" spans="1:14" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="103"/>
+    </row>
+    <row r="10" spans="1:14" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="14"/>
       <c r="C10" s="9"/>
@@ -1418,7 +1437,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+    <row r="11" spans="1:14" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="13"/>
       <c r="C11" s="9"/>
@@ -1432,7 +1451,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="1:14" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:14" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="14"/>
       <c r="C12" s="9"/>
@@ -1450,27 +1469,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="24" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A13" s="105" t="s">
+    <row r="13" spans="1:14" s="24" customFormat="1" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="106"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="108"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="107"/>
       <c r="J13" s="25"/>
       <c r="K13" s="26"/>
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
     </row>
-    <row r="14" spans="1:14" ht="13.5" customHeight="1" thickTop="1">
+    <row r="14" spans="1:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="16" spans="1:14" ht="13.5" customHeight="1">
+    <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="H16" s="28"/>
@@ -1495,15 +1514,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="30" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="30" customWidth="1"/>
@@ -1517,11 +1536,11 @@
     <col min="31" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="21" customHeight="1">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="120"/>
+      <c r="B1" s="123"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
@@ -1551,14 +1570,14 @@
       <c r="AC1" s="29"/>
       <c r="AD1" s="29"/>
     </row>
-    <row r="2" spans="1:30" ht="21" customHeight="1">
-      <c r="A2" s="121" t="s">
+    <row r="2" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
@@ -1585,25 +1604,25 @@
       <c r="AC2" s="29"/>
       <c r="AD2" s="29"/>
     </row>
-    <row r="3" spans="1:30" ht="18" customHeight="1">
-      <c r="A3" s="122" t="s">
+    <row r="3" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="119" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="122" t="s">
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="I3" s="119" t="s">
+      <c r="H3" s="119"/>
+      <c r="I3" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="119"/>
+      <c r="J3" s="120"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
@@ -1625,25 +1644,25 @@
       <c r="AC3" s="29"/>
       <c r="AD3" s="29"/>
     </row>
-    <row r="4" spans="1:30" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="122" t="s">
+    <row r="4" spans="1:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="119" t="s">
+      <c r="B4" s="119"/>
+      <c r="C4" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="122" t="s">
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="122"/>
-      <c r="I4" s="119" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="119"/>
+      <c r="J4" s="120"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
@@ -1665,25 +1684,25 @@
       <c r="AC4" s="29"/>
       <c r="AD4" s="29"/>
     </row>
-    <row r="5" spans="1:30" ht="18.95" customHeight="1">
-      <c r="A5" s="122" t="s">
+    <row r="5" spans="1:30" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="123">
+      <c r="B5" s="119"/>
+      <c r="C5" s="121">
         <v>34119</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="124"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="122"/>
       <c r="K5" s="31" t="s">
         <v>22</v>
       </c>
@@ -1745,17 +1764,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="18.95" customHeight="1">
-      <c r="A6" s="125" t="s">
+    <row r="6" spans="1:30" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125" t="s">
+      <c r="B6" s="118"/>
+      <c r="C6" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="31" t="s">
         <v>22</v>
       </c>
@@ -1829,39 +1848,39 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="9.9499999999999993" customHeight="1">
+    <row r="7" spans="1:30" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-    </row>
-    <row r="8" spans="1:30" ht="21.95" customHeight="1">
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+    </row>
+    <row r="8" spans="1:30" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>25</v>
       </c>
@@ -1874,7 +1893,7 @@
       <c r="D8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="90" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="33" t="s">
@@ -1953,11 +1972,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15.95" customHeight="1">
+    <row r="9" spans="1:30" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="101" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="35">
@@ -1966,7 +1985,7 @@
       <c r="D9" s="35">
         <v>0</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="94" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="36">
@@ -1996,7 +2015,7 @@
       <c r="N9" s="37">
         <v>0</v>
       </c>
-      <c r="O9" s="97">
+      <c r="O9" s="96">
         <v>0</v>
       </c>
       <c r="P9" s="34">
@@ -2041,11 +2060,11 @@
       <c r="AC9" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AD9" s="101" t="s">
+      <c r="AD9" s="100" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="21" customHeight="1">
+    <row r="10" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
         <v>56</v>
       </c>
@@ -2058,7 +2077,7 @@
       <c r="D10" s="43">
         <v>0</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="93" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="44">
@@ -2088,7 +2107,7 @@
       <c r="N10" s="43">
         <v>0</v>
       </c>
-      <c r="O10" s="99">
+      <c r="O10" s="98">
         <v>0</v>
       </c>
       <c r="P10" s="42" t="s">
@@ -2133,11 +2152,11 @@
       <c r="AC10" s="42">
         <v>0</v>
       </c>
-      <c r="AD10" s="98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AD10" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
         <v>57</v>
       </c>
@@ -2150,7 +2169,7 @@
       <c r="D11" s="48">
         <v>0</v>
       </c>
-      <c r="E11" s="92"/>
+      <c r="E11" s="91"/>
       <c r="F11" s="49">
         <v>0</v>
       </c>
@@ -2197,28 +2216,28 @@
       <c r="AC11" s="47"/>
       <c r="AD11" s="47"/>
     </row>
-    <row r="12" spans="1:30">
-      <c r="O12" s="96"/>
-      <c r="T12" s="100"/>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="O12" s="95"/>
+      <c r="T12" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2226,28 +2245,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="56" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="56" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="56" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="56" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="56" customWidth="1"/>
-    <col min="6" max="17" width="13.7109375" style="56" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="56" customWidth="1"/>
-    <col min="19" max="23" width="13.7109375" style="56" customWidth="1"/>
-    <col min="24" max="24" width="2.7109375" style="56" customWidth="1"/>
-    <col min="25" max="30" width="13.7109375" style="56" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="56"/>
+    <col min="1" max="1" width="15.5703125" style="130" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="130" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="130" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="130" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="130" customWidth="1"/>
+    <col min="6" max="17" width="13.7109375" style="130" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="130" customWidth="1"/>
+    <col min="19" max="23" width="13.7109375" style="130" customWidth="1"/>
+    <col min="24" max="24" width="2.7109375" style="130" customWidth="1"/>
+    <col min="25" max="30" width="13.7109375" style="130" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="130"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="21" customHeight="1">
+    <row r="1" spans="1:30" s="56" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
         <v>12</v>
       </c>
@@ -2281,14 +2302,14 @@
       <c r="AC1" s="55"/>
       <c r="AD1" s="55"/>
     </row>
-    <row r="2" spans="1:30" ht="21" customHeight="1">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:30" s="56" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
@@ -2315,7 +2336,7 @@
       <c r="AC2" s="55"/>
       <c r="AD2" s="55"/>
     </row>
-    <row r="3" spans="1:30" ht="18" customHeight="1">
+    <row r="3" spans="1:30" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="s">
         <v>13</v>
       </c>
@@ -2326,12 +2347,12 @@
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
       <c r="F3" s="59"/>
-      <c r="G3" s="128" t="s">
+      <c r="G3" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
@@ -2353,7 +2374,7 @@
       <c r="AC3" s="55"/>
       <c r="AD3" s="55"/>
     </row>
-    <row r="4" spans="1:30" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:30" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="57" t="s">
         <v>17</v>
       </c>
@@ -2362,12 +2383,12 @@
       <c r="D4" s="60"/>
       <c r="E4" s="60"/>
       <c r="F4" s="60"/>
-      <c r="G4" s="128" t="s">
+      <c r="G4" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
       <c r="K4" s="55"/>
       <c r="L4" s="55"/>
       <c r="M4" s="55"/>
@@ -2389,7 +2410,7 @@
       <c r="AC4" s="55"/>
       <c r="AD4" s="55"/>
     </row>
-    <row r="5" spans="1:30" ht="18.95" customHeight="1">
+    <row r="5" spans="1:30" s="56" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="57" t="s">
         <v>21</v>
       </c>
@@ -2398,14 +2419,14 @@
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
-      <c r="G5" s="126" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="126"/>
+      <c r="G5" s="125" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="125"/>
       <c r="K5" s="62" t="s">
         <v>22</v>
       </c>
@@ -2467,7 +2488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="63"/>
       <c r="B6" s="63"/>
       <c r="C6" s="63"/>
@@ -2547,7 +2568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="9.9499999999999993" customHeight="1">
+    <row r="7" spans="1:30" s="56" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="62" t="s">
         <v>22</v>
       </c>
@@ -2639,7 +2660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="21.95" customHeight="1">
+    <row r="8" spans="1:30" s="56" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="64" t="s">
         <v>25</v>
       </c>
@@ -2731,7 +2752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="78" t="s">
         <v>59</v>
       </c>
@@ -2787,22 +2808,19 @@
       <c r="AC9" s="74"/>
       <c r="AD9" s="74"/>
     </row>
-    <row r="10" spans="1:30" ht="12.75" customHeight="1">
+    <row r="10" spans="1:30" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="79" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="80"/>
       <c r="C10" s="81">
-        <f>SUM(C9:C9)</f>
         <v>0</v>
       </c>
       <c r="D10" s="81">
-        <f>SUM(D9:D9)</f>
         <v>0</v>
       </c>
       <c r="E10" s="82"/>
       <c r="F10" s="83">
-        <f>SUM(F9:F9)</f>
         <v>0</v>
       </c>
       <c r="G10" s="83">
@@ -2851,101 +2869,101 @@
       <c r="AC10" s="86"/>
       <c r="AD10" s="86"/>
     </row>
-    <row r="11" spans="1:30" ht="9" customHeight="1">
-      <c r="A11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="T11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="U11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="V11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="W11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="X11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC11" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD11" s="88" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="M12" s="89"/>
-      <c r="N12" s="90"/>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="W11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="X11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC11" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD11" s="129" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M12" s="88"/>
+      <c r="N12" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="7">
